--- a/TestData/Volunteer_Registration.xlsx
+++ b/TestData/Volunteer_Registration.xlsx
@@ -711,7 +711,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>

--- a/TestData/Volunteer_Registration.xlsx
+++ b/TestData/Volunteer_Registration.xlsx
@@ -711,7 +711,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
